--- a/biology/Écologie/Antoine_Hubert_(entrepreneur)/Antoine_Hubert_(entrepreneur).xlsx
+++ b/biology/Écologie/Antoine_Hubert_(entrepreneur)/Antoine_Hubert_(entrepreneur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Hubert, né le 1er mai 1982, est un environnementaliste, chef d’entreprise français, président et cofondateur du groupe Ÿnsect, producteur de protéines et d’engrais naturels à base d’insectes.
 </t>
@@ -513,15 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation et débuts
-Antoine Hubert est un ingénieur agronome diplômé d’AgroCampus-Ouest et d’AgroParisTech[1].
-Antoine Hubert commence sa carrière comme conseiller environnement chez Total[2]. 
-Worgamic
-Il fonde en 2007 l'association Worgamic, spécialisée dans le développement durable, qui encourage une meilleure gestion des ressources alimentaires en ville[3].
-Ÿnsect
-En 2011, il cofonde Ÿnsect, entreprise productrice de protéines et d’engrais naturels à base d’insectes[4],[5],[6],[7],[8], avec le soutien d’AgroParisTech et de l’Agence Nationale de la Recherche (ANR)[2].
-Comme la consommation humaine d'insectes reste faible, pour des raisons culturelles selon Antoine Hubert, son entreprise produit surtout pour l'alimentation animale et l'aquaculture[9]. 
-Il quitte ses fonctions de PDG en juillet 2023[10]. 
+          <t>Formation et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Hubert est un ingénieur agronome diplômé d’AgroCampus-Ouest et d’AgroParisTech.
+Antoine Hubert commence sa carrière comme conseiller environnement chez Total. 
 </t>
         </is>
       </c>
@@ -547,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Carrière</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2021, il est lauréat du prix national Choiseul[11].
-En 2021, il fait partie de la promotion[12] des Young Leader de la French American Foundation.
+          <t>Worgamic</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fonde en 2007 l'association Worgamic, spécialisée dans le développement durable, qui encourage une meilleure gestion des ressources alimentaires en ville.
 </t>
         </is>
       </c>
@@ -579,12 +595,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ÿnsect</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, il cofonde Ÿnsect, entreprise productrice de protéines et d’engrais naturels à base d’insectes avec le soutien d’AgroParisTech et de l’Agence Nationale de la Recherche (ANR).
+Comme la consommation humaine d'insectes reste faible, pour des raisons culturelles selon Antoine Hubert, son entreprise produit surtout pour l'alimentation animale et l'aquaculture. 
+Il quitte ses fonctions de PDG en juillet 2023. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antoine_Hubert_(entrepreneur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Hubert_(entrepreneur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, il est lauréat du prix national Choiseul.
+En 2021, il fait partie de la promotion des Young Leader de la French American Foundation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antoine_Hubert_(entrepreneur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Hubert_(entrepreneur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour une Écologie Positive, Manifeste d’un producteur d’insectes, Éditions Autrement, 2 février 2022, 144 p. (ISBN 978-2-7467-6223-7)[13].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour une Écologie Positive, Manifeste d’un producteur d’insectes, Éditions Autrement, 2 février 2022, 144 p. (ISBN 978-2-7467-6223-7).</t>
         </is>
       </c>
     </row>
